--- a/SavedSumRule/Saved_Sum_Rules.xlsx
+++ b/SavedSumRule/Saved_Sum_Rules.xlsx
@@ -2,15 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="17490" windowHeight="12300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -26,7 +25,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b val="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,10 +47,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -62,7 +72,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -425,10 +435,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -451,45 +461,63 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>C/N</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Max Scaled Transfer</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Blackman Time</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Pulse Time (us)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Pulse Area</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Pulse Type</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.01098497020114156</v>
+        <v>0.3510944578371644</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-06-20_C_e.dat</t>
+          <t>2024-06-18_G_e.dat</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.6008169586890562</v>
+        <v>1.075158925286824</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0002</v>
+        <v>0.5081063853096149</v>
       </c>
       <c r="F2" t="n">
+        <v>200</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.5253570214625479</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Kaiser</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.01098497020114156</v>
+        <v>0.3758377879800231</v>
       </c>
       <c r="B3" t="n">
         <v>0.05</v>
@@ -500,13 +528,111 @@
         </is>
       </c>
       <c r="D3" t="n">
+        <v>1.40855347077868</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.6008169586890562</v>
       </c>
-      <c r="E3" t="n">
-        <v>0.0002</v>
-      </c>
       <c r="F3" t="n">
+        <v>200</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.5253570214625479</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Kaiser</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.3594864604214866</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2024-06-20_D_e.dat</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8541558273219767</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.4931279806340563</v>
+      </c>
+      <c r="F4" t="n">
+        <v>200</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.5253570214625479</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Kaiser</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.435056688789783</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2024-06-21_F_e.dat</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1.437264312455648</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7448073696502959</v>
+      </c>
+      <c r="F5" t="n">
+        <v>400</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.5477225575051661</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Blackman</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.435056688789783</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2024-06-21_F_e.dat</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1.437264312455648</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7448073696502959</v>
+      </c>
+      <c r="F6" t="n">
+        <v>400</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.5477225575051661</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Blackman</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/SavedSumRule/Saved_Sum_Rules.xlsx
+++ b/SavedSumRule/Saved_Sum_Rules.xlsx
@@ -1,38 +1,95 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Analysis Scripts\analysis\SavedSumRule\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="17490" windowHeight="12300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17490" windowHeight="12300"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+  <si>
+    <t>SumRule from Interpolation Function</t>
+  </si>
+  <si>
+    <t>Sumrule from raw data</t>
+  </si>
+  <si>
+    <t>Gain</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>C/N</t>
+  </si>
+  <si>
+    <t>Max Scaled Transfer</t>
+  </si>
+  <si>
+    <t>Pulse Time (us)</t>
+  </si>
+  <si>
+    <t>Pulse Area</t>
+  </si>
+  <si>
+    <t>Pulse Type</t>
+  </si>
+  <si>
+    <t>2024-06-18_G_e.dat</t>
+  </si>
+  <si>
+    <t>Kaiser</t>
+  </si>
+  <si>
+    <t>2024-06-12_K_e.dat</t>
+  </si>
+  <si>
+    <t>2024-06-20_C_e.dat</t>
+  </si>
+  <si>
+    <t>2024-06-20_D_e.dat</t>
+  </si>
+  <si>
+    <t>2024-06-21_F_e.dat</t>
+  </si>
+  <si>
+    <t>Blackman</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -66,83 +123,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -430,209 +428,190 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>SumRule</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Gain</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Run</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>C/N</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Max Scaled Transfer</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Pulse Time (us)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Pulse Area</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Pulse Type</t>
-        </is>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0.3510944578371644</v>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.33833451154586769</v>
+      </c>
+      <c r="B2">
+        <v>0.35109445783716442</v>
+      </c>
+      <c r="C2">
         <v>0.1</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2024-06-18_G_e.dat</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>1.075158925286824</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.5081063853096149</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>1.0751589252868241</v>
+      </c>
+      <c r="F2">
+        <v>0.50810638530961494</v>
+      </c>
+      <c r="G2">
         <v>200</v>
       </c>
-      <c r="G2" t="n">
-        <v>0.5253570214625479</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Kaiser</t>
-        </is>
+      <c r="H2">
+        <v>0.52535702146254792</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.3379460469392439</v>
+      </c>
+      <c r="B3">
+        <v>0.34363674925626209</v>
+      </c>
+      <c r="C3">
+        <v>0.2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>0.98033257682279051</v>
+      </c>
+      <c r="F3">
+        <v>0.39822702609327632</v>
+      </c>
+      <c r="G3">
+        <v>200</v>
+      </c>
+      <c r="H3">
+        <v>0.52535702146254792</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.33554607788510632</v>
+      </c>
+      <c r="B4">
         <v>0.3758377879800231</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C4">
         <v>0.05</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2024-06-20_C_e.dat</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
         <v>1.40855347077868</v>
       </c>
-      <c r="E3" t="n">
-        <v>0.6008169586890562</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="F4">
+        <v>0.60081695868905616</v>
+      </c>
+      <c r="G4">
         <v>200</v>
       </c>
-      <c r="G3" t="n">
-        <v>0.5253570214625479</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Kaiser</t>
-        </is>
+      <c r="H4">
+        <v>0.52535702146254792</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>0.3594864604214866</v>
-      </c>
-      <c r="B4" t="n">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.36075378163912281</v>
+      </c>
+      <c r="B5">
+        <v>0.35948646042148658</v>
+      </c>
+      <c r="C5">
         <v>0.3</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2024-06-20_D_e.dat</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5">
         <v>0.8541558273219767</v>
       </c>
-      <c r="E4" t="n">
-        <v>0.4931279806340563</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="F5">
+        <v>0.49312798063405627</v>
+      </c>
+      <c r="G5">
         <v>200</v>
       </c>
-      <c r="G4" t="n">
-        <v>0.5253570214625479</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Kaiser</t>
-        </is>
+      <c r="H5">
+        <v>0.52535702146254792</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>0.435056688789783</v>
-      </c>
-      <c r="B5" t="n">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.47958299330311049</v>
+      </c>
+      <c r="B6">
+        <v>0.43505668878978299</v>
+      </c>
+      <c r="C6">
         <v>0.05</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2024-06-21_F_e.dat</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>1.437264312455648</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.7448073696502959</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6">
+        <v>1.4372643124556479</v>
+      </c>
+      <c r="F6">
+        <v>0.74480736965029593</v>
+      </c>
+      <c r="G6">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0.5477225575051661</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Blackman</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>0.435056688789783</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2024-06-21_F_e.dat</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>1.437264312455648</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.7448073696502959</v>
-      </c>
-      <c r="F6" t="n">
-        <v>400</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.5477225575051661</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Blackman</t>
-        </is>
+      <c r="H6">
+        <v>0.54772255750516607</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/SavedSumRule/Saved_Sum_Rules.xlsx
+++ b/SavedSumRule/Saved_Sum_Rules.xlsx
@@ -1,95 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Analysis Scripts\analysis\SavedSumRule\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17490" windowHeight="12300"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
-  <si>
-    <t>SumRule from Interpolation Function</t>
-  </si>
-  <si>
-    <t>Sumrule from raw data</t>
-  </si>
-  <si>
-    <t>Gain</t>
-  </si>
-  <si>
-    <t>Run</t>
-  </si>
-  <si>
-    <t>C/N</t>
-  </si>
-  <si>
-    <t>Max Scaled Transfer</t>
-  </si>
-  <si>
-    <t>Pulse Time (us)</t>
-  </si>
-  <si>
-    <t>Pulse Area</t>
-  </si>
-  <si>
-    <t>Pulse Type</t>
-  </si>
-  <si>
-    <t>2024-06-18_G_e.dat</t>
-  </si>
-  <si>
-    <t>Kaiser</t>
-  </si>
-  <si>
-    <t>2024-06-12_K_e.dat</t>
-  </si>
-  <si>
-    <t>2024-06-20_C_e.dat</t>
-  </si>
-  <si>
-    <t>2024-06-20_D_e.dat</t>
-  </si>
-  <si>
-    <t>2024-06-21_F_e.dat</t>
-  </si>
-  <si>
-    <t>Blackman</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -123,24 +69,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -428,193 +433,1027 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AA11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>SR interp</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>SR raw</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>SR MC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>e_SR MC</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>SR MC full</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>e_SR MC full</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>FM interp</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>FM raw</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>FM MC</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>e_FM MC</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>FM MC full</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>e_FM MC full</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>CS MC full</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>e_CS MC full</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>CS pred</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>e_CS pred</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Gain</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>e_C</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>C/SR</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>e_C/SR</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Peak Scaled Transfer</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>e_Peak Scaled Transfer</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Pulse Time (us)</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Pulse Area</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Pulse Type</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.33833451154586769</v>
-      </c>
-      <c r="B2">
-        <v>0.35109445783716442</v>
-      </c>
-      <c r="C2">
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.438769812175451</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.4318298315476414</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4329219695379694</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.05072911653780678</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.712704019948776</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.2158092154849556</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.3935859007149018</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.4463640939753812</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.4481971801081052</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.07003014684308011</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.4436073489703586</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.05440388835119395</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.4436073489703586</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.05440388835119395</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3.458998996987119</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.2496196274657115</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>2024-06-21_F_e.dat</t>
+        </is>
+      </c>
+      <c r="S2" t="n">
+        <v>1.437264312455648</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.1037205800167733</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.659957698600455</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.2284394429662706</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.7448073696502959</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.1112954614872808</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.5477225575051661</v>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>Blackman</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.404599302744917</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.3593323167592868</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3592112215296265</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.006564985835679483</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.949324310966518</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.01958668922003947</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.2135637022388816</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.219440569907771</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.2195024121118626</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.003746320742760195</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.368001406214974</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.005881437310990287</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.368001406214974</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.005881437310990287</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2.055658186439937</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.03169617519378442</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>2024-06-20_D_e.dat</t>
+        </is>
+      </c>
+      <c r="S3" t="n">
+        <v>0.8541558273219767</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.01317022106310197</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.188932550164679</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.02842920684196932</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.4931279806340563</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.01236070177769127</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>200</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.5253570214625479</v>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>Kaiser</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.327240887545685</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3513232793219171</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3497948757285815</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.03362849485894095</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.781850994909107</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.07805215780131972</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.3008175863698728</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.3272314916370848</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.3311998444496971</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.04335815910483162</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.3659443214526304</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.02888067653750439</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.3659443214526304</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.02888067653750439</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2.587536343830033</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.100312674429055</v>
+      </c>
+      <c r="Q4" t="n">
         <v>0.1</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>1.0751589252868241</v>
-      </c>
-      <c r="F2">
-        <v>0.50810638530961494</v>
-      </c>
-      <c r="G2">
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>2024-06-18_G_e.dat</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
+        <v>1.075158925286824</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.04168137289702716</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.536842017836017</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.1593090627989629</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.5081063853096149</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.05367683245422265</v>
+      </c>
+      <c r="Y4" t="n">
         <v>200</v>
       </c>
-      <c r="H2">
-        <v>0.52535702146254792</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
+      <c r="Z4" t="n">
+        <v>0.5253570214625479</v>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>Kaiser</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0.3379460469392439</v>
-      </c>
-      <c r="B3">
-        <v>0.34363674925626209</v>
-      </c>
-      <c r="C3">
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.3375037383833178</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.3435658608829995</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3438721909053514</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.01131184405133822</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2.27473286984547</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.04352363195913324</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.2454828473936271</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.2331278092536836</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.2329674852569664</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0110890196632192</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.3547922083295773</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.01113199643750316</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.3547922083295773</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.01113199643750316</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2.348557500321193</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.03875830122177049</v>
+      </c>
+      <c r="Q5" t="n">
         <v>0.2</v>
       </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>0.98033257682279051</v>
-      </c>
-      <c r="F3">
-        <v>0.39822702609327632</v>
-      </c>
-      <c r="G3">
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>2024-06-12_K_e.dat</t>
+        </is>
+      </c>
+      <c r="S5" t="n">
+        <v>0.9758597455222868</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.01610463697907349</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.418927978667059</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.05222084936369671</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.3982270260932763</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.04630626768683051</v>
+      </c>
+      <c r="Y5" t="n">
         <v>200</v>
       </c>
-      <c r="H3">
-        <v>0.52535702146254792</v>
-      </c>
-      <c r="I3" t="s">
-        <v>10</v>
+      <c r="Z5" t="n">
+        <v>0.5253570214625479</v>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>Kaiser</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0.33554607788510632</v>
-      </c>
-      <c r="B4">
-        <v>0.3758377879800231</v>
-      </c>
-      <c r="C4">
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.438769812175451</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.4318298315476414</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4300283390601593</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.05055172510253369</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3.739289501028033</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.2272018926587439</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.3935859007149018</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.4463640939753812</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.4456316041924247</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.072679672306852</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.4491403020052216</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.05117143806791233</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.4491403020052216</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.05117143806791233</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3.458998996987119</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.2496196274657115</v>
+      </c>
+      <c r="Q6" t="n">
         <v>0.05</v>
       </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>1.40855347077868</v>
-      </c>
-      <c r="F4">
-        <v>0.60081695868905616</v>
-      </c>
-      <c r="G4">
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>2024-06-21_F_e.dat</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v>1.437264312455648</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.1037205800167733</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.671127437318242</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.2305118161709134</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.7448073696502959</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.1112954614872808</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.5477225575051661</v>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>Blackman</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.438769812175451</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.4318298315476414</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4337940683454649</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.05077601747746707</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.798874863943548</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.2387812717333406</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.3935859007149018</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.4463640939753812</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.4457334475321624</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.06886091947854336</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.436351655764132</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.05137331831302726</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.436351655764132</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.05137331831302726</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3.458998996987119</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.2496196274657115</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>2024-06-21_F_e.dat</t>
+        </is>
+      </c>
+      <c r="S7" t="n">
+        <v>1.437264312455648</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.1037205800167733</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.656620522656663</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.2278004273367925</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.7448073696502959</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.1112954614872808</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.5477225575051661</v>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>Blackman</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.438769812175451</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.4318298315476414</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4325215538541017</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.05040330198505977</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3.709007811201953</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.2341598183514532</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.3935859007149018</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.4463640939753812</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.4470966868910738</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.07288430110299858</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.4439129915954524</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.0532191715859816</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.4439129915954524</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.0532191715859816</v>
+      </c>
+      <c r="O8" t="n">
+        <v>3.458998996987119</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.2496196274657115</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>2024-06-21_F_e.dat</t>
+        </is>
+      </c>
+      <c r="S8" t="n">
+        <v>1.437264312455648</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.1037205800167733</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.661494438425682</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.227739387791198</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.7448073696502959</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.1112954614872808</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>400</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.5477225575051661</v>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>Blackman</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.404599302744917</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.3593323167592868</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3595141848019344</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.006134364252423621</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.949571164916625</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.02076184083964318</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.2135637022388816</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.219440569907771</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.219622340222998</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.003787757857819568</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.3673292488645817</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.006591877627899081</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.3673292488645817</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.006591877627899081</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2.055658186439937</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.03169617519378442</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>2024-06-20_D_e.dat</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
+        <v>0.8541558273219767</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.01317022106310197</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.18793063449298</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.02731953170059364</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.4931279806340563</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.01236070177769127</v>
+      </c>
+      <c r="Y9" t="n">
         <v>200</v>
       </c>
-      <c r="H4">
-        <v>0.52535702146254792</v>
-      </c>
-      <c r="I4" t="s">
-        <v>10</v>
+      <c r="Z9" t="n">
+        <v>0.5253570214625479</v>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>Kaiser</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0.36075378163912281</v>
-      </c>
-      <c r="B5">
-        <v>0.35948646042148658</v>
-      </c>
-      <c r="C5">
-        <v>0.3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5">
-        <v>0.8541558273219767</v>
-      </c>
-      <c r="F5">
-        <v>0.49312798063405627</v>
-      </c>
-      <c r="G5">
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.327240887545685</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.3513232793219171</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3506752180275141</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0335635853435981</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.780309636935818</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.07502669956267753</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.3008175863698728</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.3272314916370848</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.324593488286216</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.04359851131575659</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.3634232333021851</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.03304803899350543</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.3634232333021851</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.03304803899350543</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2.587536343830033</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.100312674429055</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>2024-06-18_G_e.dat</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
+        <v>1.075158925286824</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.04168137289702716</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.532983897941808</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.1583030249076898</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.5081063853096149</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.05367683245422265</v>
+      </c>
+      <c r="Y10" t="n">
         <v>200</v>
       </c>
-      <c r="H5">
-        <v>0.52535702146254792</v>
-      </c>
-      <c r="I5" t="s">
-        <v>10</v>
+      <c r="Z10" t="n">
+        <v>0.5253570214625479</v>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>Kaiser</t>
+        </is>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0.47958299330311049</v>
-      </c>
-      <c r="B6">
-        <v>0.43505668878978299</v>
-      </c>
-      <c r="C6">
-        <v>0.05</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6">
-        <v>1.4372643124556479</v>
-      </c>
-      <c r="F6">
-        <v>0.74480736965029593</v>
-      </c>
-      <c r="G6">
-        <v>400</v>
-      </c>
-      <c r="H6">
-        <v>0.54772255750516607</v>
-      </c>
-      <c r="I6" t="s">
-        <v>15</v>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.3375037383833178</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.3435658608829995</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3434335729704582</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.01121177201664263</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2.271924862426074</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.04407566535746129</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.2454828473936271</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.2331278092536836</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.2327143171722538</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.01098489586847082</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.3552647919337641</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.01206456931978436</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.3552647919337641</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.01206456931978436</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2.348557500321193</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.03875830122177049</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>2024-06-12_K_e.dat</t>
+        </is>
+      </c>
+      <c r="S11" t="n">
+        <v>0.9758597455222868</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.01610463697907349</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.420740169753627</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.05197110750436382</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.3982270260932763</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.04630626768683051</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>200</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.5253570214625479</v>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>Kaiser</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>